--- a/0_appendix/labeling/weekly_food_control_IDs.xlsx
+++ b/0_appendix/labeling/weekly_food_control_IDs.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">FC-w1</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t xml:space="preserve">FC-w10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-w11</t>
   </si>
 </sst>
 </file>
@@ -423,6 +426,11 @@
         <v>9</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
